--- a/model/Outputs/2. No PV/Output Files/20/Output_29_41.xlsx
+++ b/model/Outputs/2. No PV/Output Files/20/Output_29_41.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2894926.020607861</v>
+        <v>2896362.229206644</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>358051.3011633558</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Total Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>358051.3011633558</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26198.01982050189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26198.01982050189</v>
       </c>
     </row>
   </sheetData>
@@ -7920,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J2" t="n">
         <v>35.04300624509033</v>
@@ -7935,7 +7975,7 @@
         <v>544.2621276423173</v>
       </c>
       <c r="N2" t="n">
-        <v>66.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O2" t="n">
         <v>70.24786957409245</v>
@@ -7947,10 +7987,10 @@
         <v>172.8226843274854</v>
       </c>
       <c r="R2" t="n">
-        <v>351.5231200915961</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S2" t="n">
-        <v>82.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -8002,31 +8042,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N3" t="n">
-        <v>182.0023183227413</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>141.2247768981573</v>
+        <v>74.42526751056216</v>
       </c>
       <c r="P3" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>190.354460434013</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.83432601147232</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8081,13 +8121,13 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J4" t="n">
-        <v>38.31723683344668</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K4" t="n">
         <v>209.5527724444444</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M4" t="n">
         <v>225.2274288888889</v>
@@ -8157,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8169,19 +8209,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>468.063487708143</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N5" t="n">
-        <v>66.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R5" t="n">
         <v>545.4197151626545</v>
@@ -8236,10 +8276,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2561356901127</v>
+        <v>46.00538061124142</v>
       </c>
       <c r="K6" t="n">
         <v>104.7763862222222</v>
@@ -8248,22 +8288,22 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N6" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>63.44495850248643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.83432601147232</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8321,7 +8361,7 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L7" t="n">
         <v>227.9959222222222</v>
@@ -8330,7 +8370,7 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N7" t="n">
-        <v>74.71981797608929</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O7" t="n">
         <v>107.8103950486296</v>
@@ -8406,19 +8446,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>298.4126599205205</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N8" t="n">
-        <v>66.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P8" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R8" t="n">
         <v>545.4197151626545</v>
@@ -8473,13 +8513,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>104.7763862222222</v>
+        <v>9.556989935306689</v>
       </c>
       <c r="L9" t="n">
         <v>113.9979611111111</v>
@@ -8494,10 +8534,10 @@
         <v>141.2247768981573</v>
       </c>
       <c r="P9" t="n">
-        <v>2.647831288106258</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>26.83432601147232</v>
@@ -8549,16 +8589,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>29.33068538587851</v>
       </c>
       <c r="I10" t="n">
-        <v>186.5256625163321</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J10" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L10" t="n">
         <v>227.9959222222222</v>
@@ -8570,7 +8610,7 @@
         <v>224.3149960555556</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>107.8103950486296</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8643,25 +8683,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>415.5445210999578</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N11" t="n">
         <v>477.2489580698352</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P11" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R11" t="n">
-        <v>145.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -8710,25 +8750,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>102.2561356901127</v>
       </c>
       <c r="K12" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.9979611111111</v>
+        <v>71.41121600579221</v>
       </c>
       <c r="M12" t="n">
-        <v>66.85070206327509</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P12" t="n">
         <v>105.4847073258963</v>
@@ -8792,10 +8832,10 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J13" t="n">
-        <v>14.61721604652481</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L13" t="n">
         <v>227.9959222222222</v>
@@ -8871,7 +8911,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8880,25 +8920,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>129.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N14" t="n">
         <v>477.2489580698352</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R14" t="n">
-        <v>509.6029787770949</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S14" t="n">
-        <v>78.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -8950,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>104.7763862222222</v>
@@ -8959,19 +8999,19 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M15" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>350.7819770626954</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>79.96818181414943</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.5920182163377</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>26.83432601147232</v>
@@ -9026,7 +9066,7 @@
         <v>29.33068538587851</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J16" t="n">
         <v>169.4692651351351</v>
@@ -9038,7 +9078,7 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M16" t="n">
-        <v>66.39257185960179</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N16" t="n">
         <v>224.3149960555556</v>
@@ -9108,7 +9148,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9120,22 +9160,22 @@
         <v>544.2621276423173</v>
       </c>
       <c r="N17" t="n">
-        <v>57.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O17" t="n">
         <v>70.24786957409245</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q17" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R17" t="n">
-        <v>125.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S17" t="n">
-        <v>232.3878024625027</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -9184,22 +9224,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M18" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>41.95013529985205</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9208,7 +9248,7 @@
         <v>105.4847073258963</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.354460434013</v>
+        <v>90.36199414877881</v>
       </c>
       <c r="R18" t="n">
         <v>26.83432601147232</v>
@@ -9260,13 +9300,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>29.33068538587851</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J19" t="n">
-        <v>41.63176015839317</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K19" t="n">
         <v>209.5527724444444</v>
@@ -9345,7 +9385,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9354,25 +9394,25 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>525.6583312160762</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N20" t="n">
-        <v>57.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P20" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R20" t="n">
         <v>545.4197151626545</v>
       </c>
       <c r="S20" t="n">
-        <v>73.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -9430,25 +9470,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N21" t="n">
-        <v>350.7819770626954</v>
+        <v>173.6257256927663</v>
       </c>
       <c r="O21" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.1370361335434</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.83432601147232</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9497,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>29.33068538587851</v>
       </c>
       <c r="I22" t="n">
         <v>198.9797601612903</v>
@@ -9506,10 +9546,10 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K22" t="n">
-        <v>110.7314295286344</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M22" t="n">
         <v>225.2274288888889</v>
@@ -9591,13 +9631,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>148.089975593035</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N23" t="n">
         <v>477.2489580698352</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P23" t="n">
         <v>0.2870600406814136</v>
@@ -9606,7 +9646,7 @@
         <v>172.8226843274854</v>
       </c>
       <c r="R23" t="n">
-        <v>125.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S23" t="n">
         <v>243.4777578001058</v>
@@ -9658,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>129.6870538151781</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9667,25 +9707,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M24" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N24" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>141.2247768981573</v>
+        <v>83.23351895734385</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q24" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9737,7 +9777,7 @@
         <v>29.33068538587851</v>
       </c>
       <c r="I25" t="n">
-        <v>67.14680569293516</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J25" t="n">
         <v>169.4692651351351</v>
@@ -9752,7 +9792,7 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O25" t="n">
         <v>107.8103950486296</v>
@@ -9816,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.82993600744792</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J26" t="n">
         <v>35.04300624509033</v>
@@ -9831,7 +9871,7 @@
         <v>544.2621276423173</v>
       </c>
       <c r="N26" t="n">
-        <v>77.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O26" t="n">
         <v>70.24786957409245</v>
@@ -9843,7 +9883,7 @@
         <v>172.8226843274854</v>
       </c>
       <c r="R26" t="n">
-        <v>145.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S26" t="n">
         <v>243.4777578001058</v>
@@ -9898,31 +9938,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>384.7447782656031</v>
+        <v>127.6513336607356</v>
       </c>
       <c r="N27" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>81.65140037298829</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q27" t="n">
         <v>190.354460434013</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.83432601147232</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -9974,10 +10014,10 @@
         <v>29.33068538587851</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J28" t="n">
-        <v>4.044203763370713</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K28" t="n">
         <v>209.5527724444444</v>
@@ -10065,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>458.8674553968937</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N29" t="n">
         <v>477.2489580698352</v>
@@ -10077,13 +10117,13 @@
         <v>0.2870600406814136</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R29" t="n">
-        <v>114.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S29" t="n">
-        <v>62.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -10132,34 +10172,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>102.2561356901127</v>
       </c>
       <c r="K30" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>222.9610747847518</v>
       </c>
       <c r="N30" t="n">
-        <v>314.1377960121035</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O30" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.83432601147232</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10208,16 +10248,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>29.33068538587851</v>
       </c>
       <c r="I31" t="n">
         <v>198.9797601612903</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K31" t="n">
-        <v>163.6818341568436</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L31" t="n">
         <v>227.9959222222222</v>
@@ -10229,7 +10269,7 @@
         <v>224.3149960555556</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>107.8103950486296</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10293,7 +10333,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10302,16 +10342,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>185.5892252235959</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N32" t="n">
-        <v>27.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O32" t="n">
         <v>70.24786957409245</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q32" t="n">
         <v>172.8226843274854</v>
@@ -10369,22 +10409,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>41.5267363117961</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N33" t="n">
-        <v>350.7819770626954</v>
+        <v>79.62510148392789</v>
       </c>
       <c r="O33" t="n">
         <v>141.2247768981573</v>
@@ -10393,7 +10433,7 @@
         <v>105.4847073258963</v>
       </c>
       <c r="Q33" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>26.83432601147232</v>
@@ -10445,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>29.33068538587851</v>
       </c>
       <c r="I34" t="n">
-        <v>106.4774910788136</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J34" t="n">
         <v>169.4692651351351</v>
@@ -10463,7 +10503,7 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O34" t="n">
         <v>107.8103950486296</v>
@@ -10539,10 +10579,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>94.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N35" t="n">
-        <v>83.245989365342</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O35" t="n">
         <v>70.24786957409245</v>
@@ -10606,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>102.2561356901127</v>
@@ -10621,10 +10661,10 @@
         <v>384.7447782656031</v>
       </c>
       <c r="N36" t="n">
-        <v>198.6267166465753</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>141.2247768981573</v>
+        <v>33.19901833313403</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10691,13 +10731,13 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K37" t="n">
-        <v>88.63225080942259</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L37" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N37" t="n">
         <v>224.3149960555556</v>
@@ -10779,19 +10819,19 @@
         <v>544.2621276423173</v>
       </c>
       <c r="N38" t="n">
-        <v>27.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O38" t="n">
         <v>70.24786957409245</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q38" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R38" t="n">
-        <v>151.7038064988428</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S38" t="n">
         <v>243.4777578001058</v>
@@ -10843,31 +10883,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>104.7763862222222</v>
+        <v>49.48459003588219</v>
       </c>
       <c r="L39" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N39" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>15.90384249350956</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10919,16 +10959,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>29.33068538587851</v>
       </c>
       <c r="I40" t="n">
         <v>198.9797601612903</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K40" t="n">
-        <v>62.20477244154728</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L40" t="n">
         <v>227.9959222222222</v>
@@ -11001,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J41" t="n">
         <v>35.04300624509033</v>
@@ -11016,22 +11056,22 @@
         <v>544.2621276423173</v>
       </c>
       <c r="N41" t="n">
-        <v>88.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P41" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R41" t="n">
-        <v>505.1895367888124</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S41" t="n">
-        <v>104.7750927496402</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -11086,28 +11126,28 @@
         <v>102.2561356901127</v>
       </c>
       <c r="K42" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>50.70887850919871</v>
+        <v>150.4990798511046</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P42" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.83432601147232</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11162,10 +11202,10 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J43" t="n">
-        <v>9.117216046524888</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L43" t="n">
         <v>227.9959222222222</v>
@@ -11250,10 +11290,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>201.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N44" t="n">
-        <v>134.2489580698352</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O44" t="n">
         <v>70.24786957409245</v>
@@ -11262,10 +11302,10 @@
         <v>0.2870600406814136</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R44" t="n">
-        <v>359.2515739957371</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S44" t="n">
         <v>243.4777578001058</v>
@@ -11320,28 +11360,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5204320754112</v>
+        <v>230.3373188110525</v>
       </c>
       <c r="N45" t="n">
-        <v>350.7819770626954</v>
+        <v>8.781977062695432</v>
       </c>
       <c r="O45" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>26.83432601147232</v>
@@ -11402,10 +11442,10 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L46" t="n">
-        <v>152.4542681822416</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M46" t="n">
         <v>225.2274288888889</v>
@@ -11414,7 +11454,7 @@
         <v>224.3149960555556</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>107.8103950486296</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23439,10 +23479,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.99931295557451</v>
+        <v>70.99931295557451</v>
       </c>
       <c r="C14" t="n">
-        <v>34.47457824299391</v>
+        <v>38.47457824299391</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23457,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>20.02773927029563</v>
+        <v>24.02773927029563</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23493,22 +23533,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>114.6191915811053</v>
+        <v>118.6191915811053</v>
       </c>
       <c r="U14" t="n">
-        <v>229.5217529288726</v>
+        <v>233.5217529288726</v>
       </c>
       <c r="V14" t="n">
-        <v>214.8510241668239</v>
+        <v>218.8510241668239</v>
       </c>
       <c r="W14" t="n">
-        <v>223.3734759809475</v>
+        <v>227.3734759809475</v>
       </c>
       <c r="X14" t="n">
-        <v>177.2818334606677</v>
+        <v>181.2818334606677</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.31743268280638</v>
+        <v>100.3174326828064</v>
       </c>
     </row>
     <row r="15">
@@ -23578,13 +23618,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3.510667191520156</v>
       </c>
       <c r="W15" t="n">
-        <v>17.37314290982852</v>
+        <v>21.37314290982852</v>
       </c>
       <c r="X15" t="n">
-        <v>4.862739445387547</v>
+        <v>8.862739445387547</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23642,10 +23682,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.1821235684552</v>
+        <v>111.1821235684552</v>
       </c>
       <c r="R16" t="n">
-        <v>306.1956210454637</v>
+        <v>310.1956210454637</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23676,10 +23716,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.99931295557451</v>
+        <v>66.99931295557451</v>
       </c>
       <c r="C17" t="n">
-        <v>29.47457824299391</v>
+        <v>34.47457824299391</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23694,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>15.02773927029563</v>
+        <v>20.02773927029563</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23730,22 +23770,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>109.6191915811053</v>
+        <v>114.6191915811053</v>
       </c>
       <c r="U17" t="n">
-        <v>224.5217529288726</v>
+        <v>229.5217529288726</v>
       </c>
       <c r="V17" t="n">
-        <v>209.8510241668239</v>
+        <v>214.8510241668239</v>
       </c>
       <c r="W17" t="n">
-        <v>218.3734759809475</v>
+        <v>223.3734759809475</v>
       </c>
       <c r="X17" t="n">
-        <v>172.2818334606677</v>
+        <v>177.2818334606677</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.31743268280638</v>
+        <v>96.31743268280638</v>
       </c>
     </row>
     <row r="18">
@@ -23818,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>12.37314290982852</v>
+        <v>17.37314290982852</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>4.862739445387547</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23879,10 +23919,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.1821235684552</v>
+        <v>107.1821235684552</v>
       </c>
       <c r="R19" t="n">
-        <v>301.1956210454637</v>
+        <v>306.1956210454637</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23913,10 +23953,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.99931295557451</v>
+        <v>66.99931295557451</v>
       </c>
       <c r="C20" t="n">
-        <v>29.47457824299391</v>
+        <v>34.47457824299391</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23931,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>15.02773927029563</v>
+        <v>20.02773927029563</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -23967,22 +24007,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>109.6191915811053</v>
+        <v>114.6191915811053</v>
       </c>
       <c r="U20" t="n">
-        <v>224.5217529288726</v>
+        <v>229.5217529288726</v>
       </c>
       <c r="V20" t="n">
-        <v>209.8510241668239</v>
+        <v>214.8510241668239</v>
       </c>
       <c r="W20" t="n">
-        <v>218.3734759809475</v>
+        <v>223.3734759809475</v>
       </c>
       <c r="X20" t="n">
-        <v>172.2818334606677</v>
+        <v>177.2818334606677</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.31743268280638</v>
+        <v>96.31743268280638</v>
       </c>
     </row>
     <row r="21">
@@ -24055,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>12.37314290982852</v>
+        <v>17.37314290982852</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>4.862739445387547</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24116,10 +24156,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.1821235684552</v>
+        <v>107.1821235684552</v>
       </c>
       <c r="R22" t="n">
-        <v>301.1956210454637</v>
+        <v>306.1956210454637</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24150,10 +24190,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.99931295557451</v>
+        <v>66.99931295557451</v>
       </c>
       <c r="C23" t="n">
-        <v>29.47457824299391</v>
+        <v>34.47457824299391</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24168,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>15.02773927029563</v>
+        <v>20.02773927029563</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24204,22 +24244,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>109.6191915811053</v>
+        <v>114.6191915811053</v>
       </c>
       <c r="U23" t="n">
-        <v>224.5217529288726</v>
+        <v>229.5217529288726</v>
       </c>
       <c r="V23" t="n">
-        <v>209.8510241668239</v>
+        <v>214.8510241668239</v>
       </c>
       <c r="W23" t="n">
-        <v>218.3734759809475</v>
+        <v>223.3734759809475</v>
       </c>
       <c r="X23" t="n">
-        <v>172.2818334606677</v>
+        <v>177.2818334606677</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.31743268280638</v>
+        <v>96.31743268280638</v>
       </c>
     </row>
     <row r="24">
@@ -24292,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>12.37314290982852</v>
+        <v>17.37314290982852</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>4.862739445387547</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24353,10 +24393,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.1821235684552</v>
+        <v>107.1821235684552</v>
       </c>
       <c r="R25" t="n">
-        <v>301.1956210454637</v>
+        <v>306.1956210454637</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24387,25 +24427,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.99931295557451</v>
+        <v>92.99931295557451</v>
       </c>
       <c r="C26" t="n">
-        <v>49.47457824299391</v>
+        <v>60.47457824299391</v>
       </c>
       <c r="D26" t="n">
-        <v>10.33915573984979</v>
+        <v>21.33915573984979</v>
       </c>
       <c r="E26" t="n">
-        <v>4.363289606868648</v>
+        <v>15.36328960686865</v>
       </c>
       <c r="F26" t="n">
-        <v>4.889628708011855</v>
+        <v>15.88962870801186</v>
       </c>
       <c r="G26" t="n">
-        <v>10.83274917143831</v>
+        <v>21.83274917143831</v>
       </c>
       <c r="H26" t="n">
-        <v>35.02773927029563</v>
+        <v>46.02773927029563</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24441,22 +24481,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>129.6191915811053</v>
+        <v>140.6191915811053</v>
       </c>
       <c r="U26" t="n">
-        <v>244.5217529288726</v>
+        <v>255.5217529288726</v>
       </c>
       <c r="V26" t="n">
-        <v>229.8510241668239</v>
+        <v>240.8510241668239</v>
       </c>
       <c r="W26" t="n">
-        <v>238.3734759809475</v>
+        <v>249.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>192.2818334606677</v>
+        <v>203.2818334606677</v>
       </c>
       <c r="Y26" t="n">
-        <v>111.3174326828064</v>
+        <v>122.3174326828064</v>
       </c>
     </row>
     <row r="27">
@@ -24523,19 +24563,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>10.68869740971195</v>
       </c>
       <c r="V27" t="n">
-        <v>14.51066719152016</v>
+        <v>25.51066719152016</v>
       </c>
       <c r="W27" t="n">
-        <v>32.37314290982852</v>
+        <v>43.37314290982852</v>
       </c>
       <c r="X27" t="n">
-        <v>19.86273944538755</v>
+        <v>30.86273944538755</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>10.39139276613435</v>
       </c>
     </row>
     <row r="28">
@@ -24590,13 +24630,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>122.1821235684552</v>
+        <v>133.1821235684552</v>
       </c>
       <c r="R28" t="n">
-        <v>321.1956210454637</v>
+        <v>332.1956210454637</v>
       </c>
       <c r="S28" t="n">
-        <v>9.541226054864012</v>
+        <v>20.54122605486401</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24624,10 +24664,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50.99931295557451</v>
+        <v>60.99931295557451</v>
       </c>
       <c r="C29" t="n">
-        <v>18.47457824299391</v>
+        <v>28.47457824299391</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24642,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4.027739270295626</v>
+        <v>14.02773927029563</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24678,22 +24718,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>98.61919158110527</v>
+        <v>108.6191915811053</v>
       </c>
       <c r="U29" t="n">
-        <v>213.5217529288726</v>
+        <v>223.5217529288726</v>
       </c>
       <c r="V29" t="n">
-        <v>198.8510241668239</v>
+        <v>208.8510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>207.3734759809475</v>
+        <v>217.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>161.2818334606677</v>
+        <v>171.2818334606677</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.31743268280638</v>
+        <v>90.31743268280638</v>
       </c>
     </row>
     <row r="30">
@@ -24766,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.373142909828516</v>
+        <v>11.37314290982852</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24827,10 +24867,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.18212356845515</v>
+        <v>101.1821235684552</v>
       </c>
       <c r="R31" t="n">
-        <v>290.1956210454637</v>
+        <v>300.1956210454637</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24861,10 +24901,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.99931295557451</v>
+        <v>45.99931295557451</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>13.47457824299391</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24915,22 +24955,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>79.61919158110527</v>
+        <v>93.61919158110527</v>
       </c>
       <c r="U32" t="n">
-        <v>194.5217529288726</v>
+        <v>208.5217529288726</v>
       </c>
       <c r="V32" t="n">
-        <v>179.8510241668239</v>
+        <v>193.8510241668239</v>
       </c>
       <c r="W32" t="n">
-        <v>188.3734759809475</v>
+        <v>202.3734759809475</v>
       </c>
       <c r="X32" t="n">
-        <v>142.2818334606677</v>
+        <v>156.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>61.31743268280638</v>
+        <v>75.31743268280638</v>
       </c>
     </row>
     <row r="33">
@@ -25064,10 +25104,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.18212356845515</v>
+        <v>86.18212356845515</v>
       </c>
       <c r="R34" t="n">
-        <v>271.1956210454637</v>
+        <v>285.1956210454637</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25572,25 +25612,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.99931295557451</v>
+        <v>96.99931295557451</v>
       </c>
       <c r="C41" t="n">
-        <v>60.47457824299391</v>
+        <v>64.47457824299391</v>
       </c>
       <c r="D41" t="n">
-        <v>21.33915573984979</v>
+        <v>25.33915573984979</v>
       </c>
       <c r="E41" t="n">
-        <v>15.36328960686865</v>
+        <v>19.36328960686865</v>
       </c>
       <c r="F41" t="n">
-        <v>15.88962870801186</v>
+        <v>19.88962870801186</v>
       </c>
       <c r="G41" t="n">
-        <v>21.83274917143831</v>
+        <v>25.83274917143831</v>
       </c>
       <c r="H41" t="n">
-        <v>46.02773927029563</v>
+        <v>50.02773927029563</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25626,22 +25666,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>140.6191915811053</v>
+        <v>144.6191915811053</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5217529288726</v>
+        <v>259.5217529288726</v>
       </c>
       <c r="V41" t="n">
-        <v>240.8510241668239</v>
+        <v>244.8510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>249.3734759809475</v>
+        <v>253.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>203.2818334606677</v>
+        <v>207.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.3174326828064</v>
+        <v>126.3174326828064</v>
       </c>
     </row>
     <row r="42">
@@ -25705,22 +25745,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>3.534018762957089</v>
       </c>
       <c r="U42" t="n">
-        <v>10.68869740971195</v>
+        <v>14.68869740971195</v>
       </c>
       <c r="V42" t="n">
-        <v>25.51066719152016</v>
+        <v>29.51066719152016</v>
       </c>
       <c r="W42" t="n">
-        <v>43.37314290982852</v>
+        <v>47.37314290982852</v>
       </c>
       <c r="X42" t="n">
-        <v>30.86273944538755</v>
+        <v>34.86273944538755</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.39139276613435</v>
+        <v>14.39139276613435</v>
       </c>
     </row>
     <row r="43">
@@ -25775,13 +25815,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1821235684552</v>
+        <v>137.1821235684552</v>
       </c>
       <c r="R43" t="n">
-        <v>332.1956210454637</v>
+        <v>336.1956210454637</v>
       </c>
       <c r="S43" t="n">
-        <v>20.54122605486401</v>
+        <v>24.54122605486401</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25809,25 +25849,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.9993129555745</v>
+        <v>139.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>106.4745782429939</v>
+        <v>107.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>67.33915573984979</v>
+        <v>68.33915573984979</v>
       </c>
       <c r="E44" t="n">
-        <v>61.36328960686865</v>
+        <v>62.36328960686865</v>
       </c>
       <c r="F44" t="n">
-        <v>61.88962870801186</v>
+        <v>62.88962870801186</v>
       </c>
       <c r="G44" t="n">
-        <v>67.83274917143831</v>
+        <v>68.83274917143831</v>
       </c>
       <c r="H44" t="n">
-        <v>92.02773927029563</v>
+        <v>93.02773927029563</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25863,22 +25903,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>186.6191915811053</v>
+        <v>187.6191915811053</v>
       </c>
       <c r="U44" t="n">
-        <v>301.5217529288726</v>
+        <v>302.5217529288726</v>
       </c>
       <c r="V44" t="n">
-        <v>286.8510241668239</v>
+        <v>287.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>295.3734759809475</v>
+        <v>296.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>249.2818334606677</v>
+        <v>250.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>168.3174326828064</v>
+        <v>169.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -25888,16 +25928,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.55655664632661</v>
+        <v>42.55655664632661</v>
       </c>
       <c r="C45" t="n">
-        <v>18.09991244551929</v>
+        <v>19.09991244551929</v>
       </c>
       <c r="D45" t="n">
-        <v>4.937686897702633</v>
+        <v>5.937686897702633</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.6720972219126224</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25906,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.22842014979517</v>
+        <v>3.22842014979517</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25936,28 +25976,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.67054165050009</v>
+        <v>11.67054165050009</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>45.53401876295709</v>
+        <v>46.53401876295709</v>
       </c>
       <c r="U45" t="n">
-        <v>56.68869740971195</v>
+        <v>57.68869740971195</v>
       </c>
       <c r="V45" t="n">
-        <v>71.51066719152016</v>
+        <v>72.51066719152016</v>
       </c>
       <c r="W45" t="n">
-        <v>89.37314290982852</v>
+        <v>90.37314290982852</v>
       </c>
       <c r="X45" t="n">
-        <v>76.86273944538755</v>
+        <v>77.86273944538755</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.39139276613435</v>
+        <v>57.39139276613435</v>
       </c>
     </row>
     <row r="46">
@@ -26012,13 +26052,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>179.1821235684552</v>
+        <v>180.1821235684552</v>
       </c>
       <c r="R46" t="n">
-        <v>378.1956210454637</v>
+        <v>379.1956210454637</v>
       </c>
       <c r="S46" t="n">
-        <v>66.54122605486401</v>
+        <v>67.54122605486401</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26112,10 +26152,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1063063.403650037</v>
+        <v>1063063.403650036</v>
       </c>
       <c r="C2" t="n">
-        <v>1063063.403650037</v>
+        <v>1063063.403650036</v>
       </c>
       <c r="D2" t="n">
         <v>1063063.403650037</v>
@@ -26124,25 +26164,25 @@
         <v>1054599.713270886</v>
       </c>
       <c r="F2" t="n">
-        <v>1065525.507802961</v>
+        <v>1063063.403650036</v>
       </c>
       <c r="G2" t="n">
-        <v>1068319.24744837</v>
+        <v>1065525.50780296</v>
       </c>
       <c r="H2" t="n">
-        <v>1068319.24744837</v>
+        <v>1065525.50780296</v>
       </c>
       <c r="I2" t="n">
-        <v>1068319.24744837</v>
+        <v>1065525.50780296</v>
       </c>
       <c r="J2" t="n">
-        <v>1054599.713270886</v>
+        <v>1044234.809214156</v>
       </c>
       <c r="K2" t="n">
-        <v>1073794.38744837</v>
+        <v>1068816.98744837</v>
       </c>
       <c r="L2" t="n">
-        <v>1081567.496169524</v>
+        <v>1076019.299655278</v>
       </c>
       <c r="M2" t="n">
         <v>1081567.496169524</v>
@@ -26151,10 +26191,10 @@
         <v>1081567.496169524</v>
       </c>
       <c r="O2" t="n">
-        <v>1044234.809214156</v>
+        <v>1040223.080217155</v>
       </c>
       <c r="P2" t="n">
-        <v>992931.8569381982</v>
+        <v>991565.8062794675</v>
       </c>
     </row>
     <row r="3">
@@ -26176,11 +26216,11 @@
         <v>311200</v>
       </c>
       <c r="F3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G3" t="n">
         <v>12000</v>
       </c>
-      <c r="G3" t="n">
-        <v>12800</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26188,22 +26228,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>295200</v>
+        <v>290400</v>
       </c>
       <c r="K3" t="n">
-        <v>36800</v>
+        <v>34400</v>
       </c>
       <c r="L3" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>246400</v>
+        <v>238400</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26216,49 +26256,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623739.9509876679</v>
+        <v>623358.0213197011</v>
       </c>
       <c r="C4" t="n">
-        <v>621753.9728897148</v>
+        <v>621410.7964024688</v>
       </c>
       <c r="D4" t="n">
-        <v>619765.3006885155</v>
+        <v>619460.929953099</v>
       </c>
       <c r="E4" t="n">
-        <v>612855.4438087307</v>
+        <v>612453.3853265434</v>
       </c>
       <c r="F4" t="n">
-        <v>617205.9723474918</v>
+        <v>615553.1977415311</v>
       </c>
       <c r="G4" t="n">
-        <v>616817.5048206694</v>
+        <v>615056.0572384098</v>
       </c>
       <c r="H4" t="n">
-        <v>614807.9775166378</v>
+        <v>613091.4505572525</v>
       </c>
       <c r="I4" t="n">
-        <v>612795.6448798729</v>
+        <v>611124.1012532809</v>
       </c>
       <c r="J4" t="n">
-        <v>602936.7415534303</v>
+        <v>596626.7595253512</v>
       </c>
       <c r="K4" t="n">
-        <v>611882.391847267</v>
+        <v>609118.2330043521</v>
       </c>
       <c r="L4" t="n">
-        <v>614265.8251512215</v>
+        <v>611380.082982749</v>
       </c>
       <c r="M4" t="n">
-        <v>612216.9682576715</v>
+        <v>612654.0966620813</v>
       </c>
       <c r="N4" t="n">
-        <v>610165.1654486031</v>
+        <v>610647.3995513811</v>
       </c>
       <c r="O4" t="n">
-        <v>587120.1235683</v>
+        <v>584586.2674977524</v>
       </c>
       <c r="P4" t="n">
-        <v>556385.9575401726</v>
+        <v>554639.8605502737</v>
       </c>
     </row>
     <row r="5">
@@ -26280,25 +26320,25 @@
         <v>33627.6</v>
       </c>
       <c r="F5" t="n">
+        <v>34552.359</v>
+      </c>
+      <c r="G5" t="n">
         <v>34888.635</v>
       </c>
-      <c r="G5" t="n">
-        <v>35308.98</v>
-      </c>
       <c r="H5" t="n">
-        <v>35308.98</v>
+        <v>34888.635</v>
       </c>
       <c r="I5" t="n">
-        <v>35308.98</v>
+        <v>34888.635</v>
       </c>
       <c r="J5" t="n">
-        <v>33627.6</v>
+        <v>32702.841</v>
       </c>
       <c r="K5" t="n">
-        <v>36233.739</v>
+        <v>35393.049</v>
       </c>
       <c r="L5" t="n">
-        <v>37831.05</v>
+        <v>36654.084</v>
       </c>
       <c r="M5" t="n">
         <v>37831.05</v>
@@ -26307,10 +26347,10 @@
         <v>37831.05</v>
       </c>
       <c r="O5" t="n">
-        <v>32702.841</v>
+        <v>32366.565</v>
       </c>
       <c r="P5" t="n">
-        <v>28835.667</v>
+        <v>28751.598</v>
       </c>
     </row>
     <row r="6">
@@ -26320,49 +26360,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>395971.0936623687</v>
+        <v>396353.023330335</v>
       </c>
       <c r="C6" t="n">
-        <v>406757.0717603218</v>
+        <v>407100.2482475675</v>
       </c>
       <c r="D6" t="n">
-        <v>408745.7439615212</v>
+        <v>409050.1146969376</v>
       </c>
       <c r="E6" t="n">
-        <v>96916.66946215567</v>
+        <v>97318.72794434277</v>
       </c>
       <c r="F6" t="n">
-        <v>401430.9004554689</v>
+        <v>404157.8469085052</v>
       </c>
       <c r="G6" t="n">
-        <v>403392.7626277005</v>
+        <v>403580.8155645505</v>
       </c>
       <c r="H6" t="n">
-        <v>418202.2899317319</v>
+        <v>417545.4222457079</v>
       </c>
       <c r="I6" t="n">
-        <v>420214.6225684967</v>
+        <v>419512.7715496796</v>
       </c>
       <c r="J6" t="n">
-        <v>122835.371717456</v>
+        <v>124505.2086888044</v>
       </c>
       <c r="K6" t="n">
-        <v>388878.2566011027</v>
+        <v>389905.7054440175</v>
       </c>
       <c r="L6" t="n">
-        <v>401470.6210183026</v>
+        <v>403985.132672529</v>
       </c>
       <c r="M6" t="n">
-        <v>431519.4779118526</v>
+        <v>419882.3495074425</v>
       </c>
       <c r="N6" t="n">
-        <v>433571.2807209212</v>
+        <v>433089.0466181425</v>
       </c>
       <c r="O6" t="n">
-        <v>178011.8446458557</v>
+        <v>184870.2477194025</v>
       </c>
       <c r="P6" t="n">
-        <v>407710.2323980256</v>
+        <v>408174.3477291939</v>
       </c>
     </row>
   </sheetData>
@@ -26620,25 +26660,25 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>411</v>
+      </c>
+      <c r="G2" t="n">
         <v>415</v>
       </c>
-      <c r="G2" t="n">
-        <v>420</v>
-      </c>
       <c r="H2" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="K2" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L2" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M2" t="n">
         <v>450</v>
@@ -26647,10 +26687,10 @@
         <v>450</v>
       </c>
       <c r="O2" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P2" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
@@ -26842,11 +26882,11 @@
         <v>389</v>
       </c>
       <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
         <v>15</v>
       </c>
-      <c r="G2" t="n">
-        <v>16</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -26854,22 +26894,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K2" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27079,11 +27119,11 @@
         <v>389</v>
       </c>
       <c r="K2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" t="n">
-        <v>16</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -27091,10 +27131,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P2" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -27322,7 +27362,7 @@
         <v>411</v>
       </c>
       <c r="I2" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27337,7 +27377,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27349,10 +27389,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>193.8965950710584</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>411</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T2" t="n">
         <v>411</v>
@@ -27404,31 +27444,31 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K3" t="n">
         <v>104.7763862222222</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>168.7796587399542</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.79950938759517</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>380.5048676619724</v>
+        <v>353.6705416505001</v>
       </c>
       <c r="S3" t="n">
         <v>340.140588939824</v>
@@ -27483,13 +27523,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>131.1520283016885</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27559,10 +27599,10 @@
         <v>411</v>
       </c>
       <c r="I5" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J5" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27571,19 +27611,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>76.19863993417425</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -27638,10 +27678,10 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I6" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>56.25075507887129</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27650,22 +27690,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P6" t="n">
-        <v>42.03974882340979</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R6" t="n">
-        <v>380.5048676619724</v>
+        <v>353.6705416505001</v>
       </c>
       <c r="S6" t="n">
         <v>340.140588939824</v>
@@ -27723,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27732,7 +27772,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>149.5951780794663</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>104.3912891735927</v>
@@ -27808,19 +27848,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>245.8494677217968</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27875,13 +27915,13 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I9" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>95.21939628691551</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27896,10 +27936,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>102.83687603779</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R9" t="n">
         <v>353.6705416505001</v>
@@ -27951,16 +27991,16 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H10" t="n">
-        <v>216.4223735483871</v>
+        <v>187.0916881625086</v>
       </c>
       <c r="I10" t="n">
-        <v>12.45409764495818</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -27972,7 +28012,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>212.2016842222222</v>
+        <v>104.3912891735927</v>
       </c>
       <c r="P10" t="n">
         <v>301.8909021922657</v>
@@ -28045,25 +28085,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>128.7176065423595</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>400</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T11" t="n">
         <v>400</v>
@@ -28112,25 +28152,25 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I12" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>42.5867451053189</v>
       </c>
       <c r="M12" t="n">
-        <v>317.8940762023281</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O12" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -28194,10 +28234,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>154.8520490886103</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28249,10 +28289,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D14" t="n">
         <v>410.3391557398498</v>
@@ -28267,13 +28307,13 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I14" t="n">
         <v>136.407413904614</v>
       </c>
       <c r="J14" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28282,43 +28322,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>35.81673638555958</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>415</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="U14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="V14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="W14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="X14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y14" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15">
@@ -28352,7 +28392,7 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28361,19 +28401,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>141.2247768981573</v>
+        <v>61.2565950840079</v>
       </c>
       <c r="P15" t="n">
         <v>105.4847073258963</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.76244221767521</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R15" t="n">
         <v>353.6705416505001</v>
@@ -28388,13 +28428,13 @@
         <v>399.6886974097119</v>
       </c>
       <c r="V15" t="n">
-        <v>414.5106671915202</v>
+        <v>411</v>
       </c>
       <c r="W15" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="X15" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y15" t="n">
         <v>399.3913927661343</v>
@@ -28428,7 +28468,7 @@
         <v>187.0916881625086</v>
       </c>
       <c r="I16" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28440,7 +28480,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>158.834857029287</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28452,10 +28492,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q16" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R16" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S16" t="n">
         <v>409.541226054864</v>
@@ -28486,10 +28526,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D17" t="n">
         <v>410.3391557398498</v>
@@ -28504,13 +28544,13 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I17" t="n">
         <v>136.407413904614</v>
       </c>
       <c r="J17" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28522,40 +28562,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>261.3872902871374</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="U17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="V17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="W17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Y17" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18">
@@ -28586,22 +28626,22 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I18" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N18" t="n">
-        <v>308.8318417628433</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>141.2247768981573</v>
@@ -28610,7 +28650,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>99.99246628523416</v>
       </c>
       <c r="R18" t="n">
         <v>353.6705416505001</v>
@@ -28628,10 +28668,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X18" t="n">
-        <v>419.8627394453875</v>
+        <v>415</v>
       </c>
       <c r="Y18" t="n">
         <v>399.3913927661343</v>
@@ -28662,13 +28702,13 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H19" t="n">
-        <v>216.4223735483871</v>
+        <v>187.0916881625086</v>
       </c>
       <c r="I19" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>127.837504976742</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28689,10 +28729,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q19" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="R19" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S19" t="n">
         <v>409.541226054864</v>
@@ -28723,10 +28763,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D20" t="n">
         <v>410.3391557398498</v>
@@ -28741,13 +28781,13 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I20" t="n">
         <v>136.407413904614</v>
       </c>
       <c r="J20" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28756,43 +28796,43 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>18.60379642624105</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>420</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="U20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="V20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="W20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Y20" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21">
@@ -28832,25 +28872,25 @@
         <v>104.7763862222222</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>177.1562513699292</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.2174243004696</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R21" t="n">
-        <v>380.5048676619724</v>
+        <v>353.6705416505001</v>
       </c>
       <c r="S21" t="n">
         <v>340.140588939824</v>
@@ -28865,10 +28905,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X21" t="n">
-        <v>419.8627394453875</v>
+        <v>415</v>
       </c>
       <c r="Y21" t="n">
         <v>399.3913927661343</v>
@@ -28899,7 +28939,7 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H22" t="n">
-        <v>216.4223735483871</v>
+        <v>187.0916881625086</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -28908,10 +28948,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>98.82134291581004</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28926,10 +28966,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q22" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="R22" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S22" t="n">
         <v>409.541226054864</v>
@@ -28960,10 +29000,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D23" t="n">
         <v>410.3391557398498</v>
@@ -28978,7 +29018,7 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I23" t="n">
         <v>136.407413904614</v>
@@ -28993,13 +29033,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>396.1721520492823</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29008,28 +29048,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>250.2973349495345</v>
       </c>
       <c r="T23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="U23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="V23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="W23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Y23" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24">
@@ -29060,7 +29100,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I24" t="n">
-        <v>105.1669139686994</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J24" t="n">
         <v>102.2561356901127</v>
@@ -29069,25 +29109,25 @@
         <v>104.7763862222222</v>
       </c>
       <c r="L24" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.99125794081348</v>
       </c>
       <c r="P24" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R24" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S24" t="n">
         <v>340.140588939824</v>
@@ -29102,10 +29142,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W24" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X24" t="n">
-        <v>419.8627394453875</v>
+        <v>415</v>
       </c>
       <c r="Y24" t="n">
         <v>399.3913927661343</v>
@@ -29139,7 +29179,7 @@
         <v>187.0916881625086</v>
       </c>
       <c r="I25" t="n">
-        <v>131.8329544683552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29154,7 +29194,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>104.3912891735927</v>
@@ -29163,10 +29203,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q25" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="R25" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S25" t="n">
         <v>409.541226054864</v>
@@ -29197,28 +29237,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="I26" t="n">
-        <v>257.8982393990169</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29233,7 +29273,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29245,28 +29285,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>250.2973349495345</v>
       </c>
       <c r="T26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="U26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="V26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="W26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="X26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Y26" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27">
@@ -29300,31 +29340,31 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L27" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>257.0934446048676</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O27" t="n">
-        <v>59.57337652516905</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>380.5048676619724</v>
+        <v>353.6705416505001</v>
       </c>
       <c r="S27" t="n">
         <v>340.140588939824</v>
@@ -29333,19 +29373,19 @@
         <v>388.5340187629571</v>
       </c>
       <c r="U27" t="n">
-        <v>399.6886974097119</v>
+        <v>389</v>
       </c>
       <c r="V27" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="W27" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="X27" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Y27" t="n">
-        <v>399.3913927661343</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28">
@@ -29376,10 +29416,10 @@
         <v>187.0916881625086</v>
       </c>
       <c r="I28" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>165.4250613717644</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29400,13 +29440,13 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q28" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="R28" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="S28" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T28" t="n">
         <v>223.1403870791274</v>
@@ -29434,10 +29474,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557398498</v>
@@ -29452,7 +29492,7 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="I29" t="n">
         <v>136.407413904614</v>
@@ -29467,7 +29507,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>85.39467224542392</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29479,31 +29519,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>431</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="U29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="V29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="W29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="X29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="Y29" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30">
@@ -29534,34 +29574,34 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I30" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M30" t="n">
-        <v>384.7447782656031</v>
+        <v>161.7837034808513</v>
       </c>
       <c r="N30" t="n">
-        <v>36.64418105059184</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R30" t="n">
-        <v>380.5048676619724</v>
+        <v>353.6705416505001</v>
       </c>
       <c r="S30" t="n">
         <v>340.140588939824</v>
@@ -29576,7 +29616,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394453875</v>
@@ -29610,16 +29650,16 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H31" t="n">
-        <v>216.4223735483871</v>
+        <v>187.0916881625086</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>169.4692651351351</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.87093828760075</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29631,16 +29671,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>212.2016842222222</v>
+        <v>104.3912891735927</v>
       </c>
       <c r="P31" t="n">
         <v>301.8909021922657</v>
       </c>
       <c r="Q31" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="R31" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="S31" t="n">
         <v>409.541226054864</v>
@@ -29671,10 +29711,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C32" t="n">
-        <v>449.4745782429939</v>
+        <v>436</v>
       </c>
       <c r="D32" t="n">
         <v>410.3391557398498</v>
@@ -29695,7 +29735,7 @@
         <v>136.407413904614</v>
       </c>
       <c r="J32" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29704,16 +29744,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>358.6729024187214</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29725,22 +29765,22 @@
         <v>250.2973349495345</v>
       </c>
       <c r="T32" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="U32" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="V32" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="W32" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="X32" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="Y32" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33">
@@ -29771,22 +29811,22 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I33" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K33" t="n">
         <v>104.7763862222222</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M33" t="n">
-        <v>343.2180419538071</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>271.1568755787675</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -29795,7 +29835,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R33" t="n">
         <v>353.6705416505001</v>
@@ -29847,10 +29887,10 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H34" t="n">
-        <v>216.4223735483871</v>
+        <v>187.0916881625086</v>
       </c>
       <c r="I34" t="n">
-        <v>92.5022690824767</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29865,7 +29905,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>104.3912891735927</v>
@@ -29874,10 +29914,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q34" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="R34" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="S34" t="n">
         <v>409.541226054864</v>
@@ -29941,10 +29981,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>394.0029687044931</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30008,7 +30048,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I36" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30023,10 +30063,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>152.1552604161202</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>108.0257585650233</v>
       </c>
       <c r="P36" t="n">
         <v>105.4847073258963</v>
@@ -30093,13 +30133,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>120.9205216350218</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30181,19 +30221,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>393.7159086638117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>250.2973349495345</v>
@@ -30245,31 +30285,31 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I39" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>55.29179618634004</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O39" t="n">
-        <v>125.3209344046478</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>105.4847073258963</v>
       </c>
       <c r="Q39" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>380.5048676619724</v>
@@ -30321,16 +30361,16 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H40" t="n">
-        <v>216.4223735483871</v>
+        <v>187.0916881625086</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>169.4692651351351</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>147.3480000028971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30382,28 +30422,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I41" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30418,40 +30458,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.23017837384202</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>389</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="U41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="V41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="W41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="X41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Y41" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42">
@@ -30488,49 +30528,49 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N42" t="n">
-        <v>300.0730985534967</v>
+        <v>200.2828972115908</v>
       </c>
       <c r="O42" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R42" t="n">
-        <v>380.5048676619724</v>
+        <v>353.6705416505001</v>
       </c>
       <c r="S42" t="n">
         <v>340.140588939824</v>
       </c>
       <c r="T42" t="n">
-        <v>388.5340187629571</v>
+        <v>385</v>
       </c>
       <c r="U42" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="V42" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="W42" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="X42" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Y42" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43">
@@ -30564,10 +30604,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>160.3520490886102</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30585,13 +30625,13 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q43" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="R43" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S43" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="T43" t="n">
         <v>223.1403870791274</v>
@@ -30619,25 +30659,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I44" t="n">
         <v>136.407413904614</v>
@@ -30652,10 +30692,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30664,31 +30704,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>186.1681411669173</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>250.2973349495345</v>
       </c>
       <c r="T44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y44" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45">
@@ -30698,16 +30738,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>342</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
@@ -30716,58 +30756,58 @@
         <v>329.5251962523859</v>
       </c>
       <c r="H45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I45" t="n">
         <v>234.8539677838776</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>104.7763862222222</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M45" t="n">
-        <v>61.22434619019202</v>
+        <v>154.4074594545506</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P45" t="n">
         <v>105.4847073258963</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S45" t="n">
         <v>340.140588939824</v>
       </c>
       <c r="T45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y45" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46">
@@ -30804,10 +30844,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>75.5416540399807</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30816,19 +30856,19 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>212.2016842222222</v>
+        <v>104.3912891735927</v>
       </c>
       <c r="P46" t="n">
         <v>301.8909021922657</v>
       </c>
       <c r="Q46" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R46" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S46" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T46" t="n">
         <v>223.1403870791274</v>

--- a/model/Outputs/2. No PV/Output Files/20/Output_29_41.xlsx
+++ b/model/Outputs/2. No PV/Output Files/20/Output_29_41.xlsx
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net demand" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net surplus" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unmet Demand" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Household Surplus" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +542,26 @@
       </c>
       <c r="B10" t="n">
         <v>26198.01982050189</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>VoLL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Household Surplus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>361791.4100768329</v>
       </c>
     </row>
   </sheetData>
@@ -26084,6 +26105,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>surplus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8436.158364944215</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15627.58743048937</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22819.01649603451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30055.44568501286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37258.12478141631</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>44436.67537217303</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>51612.00634423264</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58787.33731629226</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>66073.92546749431</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>73259.23857878819</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>80371.58635174288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>87441.40277137869</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>94503.12966547642</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>101787.3048934391</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>109365.8585347507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
